--- a/Recycling/Met_rec/metrec_Min_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>60783.98114902514</v>
+        <v>60783.98114902512</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>115754.3298054402</v>
+        <v>115754.3298054403</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>245046.0554110848</v>
+        <v>245046.0554110847</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>910571.2991997628</v>
+        <v>910571.299199763</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3510062.265742252</v>
+        <v>3510062.265742251</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3773548.082014819</v>
+        <v>3773548.082014818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4095,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3131634.983683898</v>
+        <v>3131634.983683897</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5415,7 +5415,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3542295.797384475</v>
+        <v>3542295.797384474</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3176048.268197268</v>
+        <v>3176048.268197267</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5943,7 +5943,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2845498.530304905</v>
+        <v>2845498.530304906</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6207,7 +6207,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3026569.828354889</v>
+        <v>3026569.828354888</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3734582.913198551</v>
+        <v>3734582.91319855</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full_Avg.xlsx
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7995459.266291357</v>
+        <v>7995459.266291359</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6099.906861863186</v>
+        <v>6099.906861863185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>67102.0736741469</v>
+        <v>67102.07367414692</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>40667.31755302467</v>
+        <v>40667.31755302465</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>310784.5678020183</v>
+        <v>310784.5678020184</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3804,7 +3804,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>69330.35263716632</v>
+        <v>69330.3526371663</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>65184.30528425522</v>
+        <v>65184.30528425521</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5116,7 +5116,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>350362.9192204399</v>
+        <v>350362.9192204398</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5160,7 +5160,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>160454.0455814551</v>
+        <v>160454.0455814552</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>885851.2223659796</v>
+        <v>885851.2223659797</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6996,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2017696.913147838</v>
+        <v>2017696.913147839</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -7316,7 +7316,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3623083.562269357</v>
+        <v>3623083.562269356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3989183.388766085</v>
+        <v>3989183.388766084</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8336,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4775005.457341959</v>
+        <v>4775005.457341958</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5640064.069827878</v>
+        <v>5640064.069827879</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9036,7 +9036,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4805952.269006278</v>
+        <v>4805952.269006277</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9152,7 +9152,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6031145.058601768</v>
+        <v>6031145.05860177</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9356,7 +9356,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5907449.468028769</v>
+        <v>5907449.46802877</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5676326.915537411</v>
+        <v>5676326.915537413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10128,7 +10128,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>10231747.04707488</v>
+        <v>10231747.04707487</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12096,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3451629.738460757</v>
+        <v>3451629.738460756</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12416,7 +12416,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5090595.290512441</v>
+        <v>5090595.290512442</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12576,7 +12576,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9315353.14059679</v>
+        <v>9315353.140596792</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12824,7 +12824,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5723315.760918824</v>
+        <v>5723315.760918823</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4534094.635611525</v>
+        <v>4534094.635611524</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13480,7 +13480,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>26901757.59773209</v>
+        <v>26901757.59773208</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13684,7 +13684,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>27620652.70457336</v>
+        <v>27620652.70457335</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13728,7 +13728,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4600486.686086022</v>
+        <v>4600486.686086023</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14048,7 +14048,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6419459.194137068</v>
+        <v>6419459.194137067</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>29137235.21733057</v>
+        <v>29137235.21733056</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>90.9473317508606</v>
+        <v>90.94733175086061</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4509021.282064289</v>
+        <v>4509021.282064288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15272,7 +15272,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5866914.921821461</v>
+        <v>5866914.921821459</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -15316,7 +15316,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>32130866.76544294</v>
+        <v>32130866.76544293</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -15884,7 +15884,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6093322.549546094</v>
+        <v>6093322.549546092</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9907954.734769179</v>
+        <v>9907954.73476918</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17152,7 +17152,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>38427197.9335024</v>
+        <v>38427197.93350241</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17516,7 +17516,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7249981.270166736</v>
+        <v>7249981.270166737</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>39983604.09213403</v>
+        <v>39983604.09213402</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5254928.076683496</v>
+        <v>5254928.076683498</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17968,7 +17968,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>41457580.3081605</v>
+        <v>41457580.30816051</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18084,7 +18084,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9761285.559158174</v>
+        <v>9761285.559158176</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18288,7 +18288,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9625413.864161026</v>
+        <v>9625413.864161024</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7246067.415534653</v>
+        <v>7246067.415534652</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18536,7 +18536,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7087774.434247465</v>
+        <v>7087774.434247467</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4849100.452044196</v>
+        <v>4849100.452044197</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -19308,7 +19308,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8850777.38155443</v>
+        <v>8850777.381554432</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19352,7 +19352,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6779459.293330365</v>
+        <v>6779459.293330363</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>8892887.026276128</v>
+        <v>8892887.026276127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19556,7 +19556,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6838801.507099262</v>
+        <v>6838801.507099264</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19600,7 +19600,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>46167653.88988698</v>
+        <v>46167653.88988699</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19760,7 +19760,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>6917758.906308474</v>
+        <v>6917758.906308475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -19848,7 +19848,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>4953604.908669541</v>
+        <v>4953604.908669542</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20008,7 +20008,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>47748849.21054773</v>
+        <v>47748849.21054772</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20124,7 +20124,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9152457.365761535</v>
+        <v>9152457.365761537</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20168,7 +20168,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7211590.311296007</v>
+        <v>7211590.311296009</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20620,7 +20620,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>50150929.61926979</v>
+        <v>50150929.61926977</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20664,7 +20664,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>5547256.591069568</v>
+        <v>5547256.591069569</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20736,7 +20736,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>9466893.271525484</v>
+        <v>9466893.271525485</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>7915891.760238521</v>
+        <v>7915891.760238522</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21028,7 +21028,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>51687475.44807903</v>
+        <v>51687475.44807904</v>
       </c>
     </row>
     <row r="13" spans="1:4">
